--- a/biology/Médecine/Cataplexie/Cataplexie.xlsx
+++ b/biology/Médecine/Cataplexie/Cataplexie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cataplexie est un des symptômes majeurs de la narcolepsie : c'est une perte brusque du tonus musculaire sans altération de la conscience et survenant à un moment quelconque de la journée. Elle est typiquement déclenchée par une émotion : surprise, plaisir, rire ou colère, mais certaines cataplexies semblent survenir en l'absence d'une émotion caractérisée. 
 La cataplexie peut concerner quelques muscles seulement (chute de la tête, impossibilité d'articuler la mâchoire et donc de s'exprimer verbalement, dérobement des genoux, effondrement des épaules) ou être beaucoup plus globale, entraînant la chute de la personne.
@@ -517,9 +529,11 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les attaques sont brèves, la plupart durent de quelques secondes à quelques minutes, et impliquent généralement une chute de la mâchoire ou une faiblesse du cou ou des genoux. Lors d'un effondrement complet, les gens sont généralement en mesure d'éviter les blessures car ils apprennent à remarquer la sensation de l'attaque cataplectique qui approche et la chute est généralement lente et progressive[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les attaques sont brèves, la plupart durent de quelques secondes à quelques minutes, et impliquent généralement une chute de la mâchoire ou une faiblesse du cou ou des genoux. Lors d'un effondrement complet, les gens sont généralement en mesure d'éviter les blessures car ils apprennent à remarquer la sensation de l'attaque cataplectique qui approche et la chute est généralement lente et progressive.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Syncope
 Épilepsie (absence)</t>
